--- a/Copie deliste_outils.xlsx
+++ b/Copie deliste_outils.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonymartin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonymartin/Documents/GitHub/SIM-2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="460" windowWidth="23180" windowHeight="17540"/>
+    <workbookView xWindow="2100" yWindow="460" windowWidth="23180" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="155">
   <si>
     <t>Liste des outils</t>
   </si>
@@ -107,18 +107,12 @@
     <t>Poireau</t>
   </si>
   <si>
-    <t>Bazooka à bleuets</t>
-  </si>
-  <si>
     <t>Mangue</t>
   </si>
   <si>
     <t>Poké Ball</t>
   </si>
   <si>
-    <t>Bazooka à framboises</t>
-  </si>
-  <si>
     <t>Kiwi</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>Great Ball</t>
   </si>
   <si>
-    <t>Bazooka à noix de coco</t>
-  </si>
-  <si>
     <t>Frisbee vert</t>
   </si>
   <si>
@@ -146,15 +137,9 @@
     <t>Ultra Ball</t>
   </si>
   <si>
-    <t>Bazooka à mangue</t>
-  </si>
-  <si>
     <t>Master Ball</t>
   </si>
   <si>
-    <t>Bazooka à kiwi</t>
-  </si>
-  <si>
     <t>Frisbee mauve</t>
   </si>
   <si>
@@ -245,45 +230,6 @@
     <t>balle14</t>
   </si>
   <si>
-    <t>Tire-bacon</t>
-  </si>
-  <si>
-    <t>Tire-pizzas</t>
-  </si>
-  <si>
-    <t>Tire-frites</t>
-  </si>
-  <si>
-    <t>Tire-café</t>
-  </si>
-  <si>
-    <t>Tire-oranges</t>
-  </si>
-  <si>
-    <t>Tire-pommes</t>
-  </si>
-  <si>
-    <t>Tire-bananes</t>
-  </si>
-  <si>
-    <t>Tire-ananas</t>
-  </si>
-  <si>
-    <t>Tire-cerises</t>
-  </si>
-  <si>
-    <t>Tire-baies</t>
-  </si>
-  <si>
-    <t>Tire-carottes</t>
-  </si>
-  <si>
-    <t>Tire-barbotine</t>
-  </si>
-  <si>
-    <t>Tire crème-glacée</t>
-  </si>
-  <si>
     <t>Bacon</t>
   </si>
   <si>
@@ -296,12 +242,6 @@
     <t>Café</t>
   </si>
   <si>
-    <t>Pepssi</t>
-  </si>
-  <si>
-    <t>Tire-Pepssi</t>
-  </si>
-  <si>
     <t>Jus d'orange</t>
   </si>
   <si>
@@ -365,38 +305,216 @@
     <t xml:space="preserve">RÉGULIER : </t>
   </si>
   <si>
-    <t>RÉGULIER : De l'eau… ça goûte l'eau…</t>
-  </si>
-  <si>
     <t>RARE :</t>
   </si>
   <si>
     <t xml:space="preserve">RARE : </t>
   </si>
   <si>
-    <t xml:space="preserve">RARE : La spécialité de M. Mascolo se </t>
-  </si>
-  <si>
-    <t>LÉGENDAIRE :</t>
-  </si>
-  <si>
     <t>RARE : Rien de mieux que du bon bacon pour se graisser les artères.</t>
   </si>
   <si>
     <t>LÉGENDAIRE : La Master-Ball est une Poké-Ball utilisée par les meilleurs dresseurs de pokémons, il faut être un maitre dans l'art pour l'utiliser!</t>
   </si>
   <si>
-    <t>RÉGULIER :</t>
-  </si>
-  <si>
     <t>RÉGULIER : Aliment #1 des lapins, les toutous vont sans aucun doute l'apprécier.</t>
+  </si>
+  <si>
+    <t>LÉGENDAIRE : Si t'es rendu avec cet outil la, il est probablement le temps que t'arrête de jouer.</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Ces bleuets géants sont tant remplis d'OGM, de pesticides qu'ils seraient responsables de la hausse de popularité du bio chez les toutous.</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Bien aguisé, ce crayon vous aidera certainement à éloigner vos adversaires.</t>
+  </si>
+  <si>
+    <t>RARE : Cette boisson contient tant de caféine qu'elle sortira vos adversaires de votre rêve plus rapidement que l'éclair!</t>
+  </si>
+  <si>
+    <t>RARE : Presque inoffensives individuellement, les baies deviennent redoutables en grand nombre!</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Quelqu'un vous a déjà dit que la violence n'arrange rien? Utilisez donc l'amour pour combattre vos adversaires!</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Heureusement que les toutous ont la tête molle. Car une noix de coco sur le coco, ça ne doit pas faire du bien!</t>
+  </si>
+  <si>
+    <t>RÉGULIER : C'est pas pour rien que le détective d'Agatha Cristie s'appele Hercule Poireau. Utilisez ceci pour découvrir le point faible de tous les toutous!</t>
+  </si>
+  <si>
+    <t>Bambouzla à bleuets</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Les bleuets aux OGM sont de retour dans ce rapide Bambouzla.</t>
+  </si>
+  <si>
+    <t>Bambouzla à framboises</t>
+  </si>
+  <si>
+    <t>Bambouzla à noix de coco</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Bambouzla</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve"> à mangue</t>
+    </r>
+  </si>
+  <si>
+    <t>Bambouzla à kiwi</t>
+  </si>
+  <si>
+    <t>Projectilateur à bacon</t>
+  </si>
+  <si>
+    <t>Projectilateur à pizzas</t>
+  </si>
+  <si>
+    <t>Projectilateur à frites</t>
+  </si>
+  <si>
+    <t>Projectilateur à crème-glacée</t>
+  </si>
+  <si>
+    <t>Projectilateur à barbotine</t>
+  </si>
+  <si>
+    <t>Projectilateur à café</t>
+  </si>
+  <si>
+    <t>Projectilateur à oranges</t>
+  </si>
+  <si>
+    <t>Projectilateur à pommes</t>
+  </si>
+  <si>
+    <t>Projectilateur à bananes</t>
+  </si>
+  <si>
+    <t>Projectilateur à ananas</t>
+  </si>
+  <si>
+    <t>Projectilateur à cerises</t>
+  </si>
+  <si>
+    <t>Projectilateur à carottes</t>
+  </si>
+  <si>
+    <t>Projectilateur à baies</t>
+  </si>
+  <si>
+    <t>RARE : Bien chaudes et croustillante, elle deviendront le régal de tous les toutous de ce monde.</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Projectilateur à Pepsi</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Attention! Cette crème glacé</t>
+  </si>
+  <si>
+    <t>LÉGENDAIRE : Attention! Ce lance barbotine est réputé pour donner les pires "gels de cerveau".</t>
+  </si>
+  <si>
+    <t>LÉGENDAIRE : Le fruit étrangement hyper poilu est de retour dans ce bambouzla méga puissant.</t>
+  </si>
+  <si>
+    <t>RÉGULIER : MANGO MANGO MANGO MANGO MANGO MANGO MANGOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>RARE : Ce jus de fruit bourré de vitamines va faire le plus grand plaisir des toutous enrhumés</t>
+  </si>
+  <si>
+    <t>LÉGENDAIRE : La créme glacée est si froide qu'elle frigorifira tous vos adversaires!</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Certains disent que la pelure de ce fruit ce mange. Évitez ces gens. Ils sont fous.</t>
+  </si>
+  <si>
+    <t>RÉGULIER : En vérité, la framboise n,est pas un fruit. Elle est enfait un ensemble de 40 à 80 drupéoles qui représentent chacun un petit fruit.</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Préparez vos munitions et démarrer la bataille de boules de neiges contre vos ennemis!</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Rien de mieux qu'un bon seau d'eau en pleine face pour surprendre vos adversaires!</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Votre ami Antoine dit que si ces melons contiennent tant d'eau c'est à cause qu'ils poussent sur le bord d'une rivière magique.</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Bien qu'il prenne du temps à être lancé, ce frisbee peut toucher jusqu'à deux toutous en un seul coup!</t>
+  </si>
+  <si>
+    <t>LÉGENDAIRE : Ce frisbee mauve est la version la plus puissante des disques colorés. Elle touche jusqu'à 4 toutous d'un seul coup!</t>
+  </si>
+  <si>
+    <t>RARE : Cette version rouge de la collection des disques est la deuxième plus puissante et touche jusqu'à trois adversaires en un seul lancé.</t>
+  </si>
+  <si>
+    <t>RARE : Le frisbee vert peut prendre du temps à être lancé, mais il peut heureusement toucher 3 toutous d'un coup!</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Première de la série des super-balles, …</t>
+  </si>
+  <si>
+    <t>LÉGENDAIRE : Fraîchement sorties de la friteuse, ces frites croustillantes et chaudes deviendront le régal de tous les toutous de ce monde.</t>
+  </si>
+  <si>
+    <t>RARE : La spécialité de italienne contient fromage, pepperoni, sauce tomate et poivrons. Dequoi faire saliver tous vos adversaires.</t>
+  </si>
+  <si>
+    <t>RARE : Ces petits fruits deviennent très caloriques lorsqu'elles sont projectilisées à haute vitesse par ce projectilateur!</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Attention de ne pas échapper ce fruit par terre. Il pourrait vous faire trébucher!</t>
+  </si>
+  <si>
+    <t>LÉGENDAIRE : Il y a quelque chose dans ce canon qui rend cette viande affreusement appétissante!</t>
+  </si>
+  <si>
+    <t>LÉGENDAIRE : Ce projectilateur permet de lancer les pointes si rapidement qu,il renpliroa le ventre de vos adversaires plus rapidement que l'éclair!</t>
+  </si>
+  <si>
+    <t>RARE : Cette pompe à jus de pomme est suffisamment puissante pour faire tomber vos adversaire dans les pommes en un rien de temps!</t>
+  </si>
+  <si>
+    <t>RARE : Bien que les toutous préfèrent secrètement le Coca Cola, ils ne diront certainement pas non à une bonne dose de Pepsi!</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Ces savoureuses framboises deviennent redoutables lorsqu'elles sont projetées en si grande quantité.</t>
+  </si>
+  <si>
+    <t>RARE : Les toutous veulent toujours plus de mangue. Donnez-en leur toute une dose avec ce Bambouzla!.</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Ce fruit trop acide pourrait donner des maux d'estomac aux toutous. Par contre, ils prioriseront toujours le plaisisr de leurs papilles gustatives.</t>
+  </si>
+  <si>
+    <t>RÉGULIER : Personne ne sait pourquoi, mais les toutous ont une terrible phobie des ballons de plage.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,8 +601,18 @@
       <color rgb="FF000000"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +688,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +795,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,9 +813,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,6 +823,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7"/>
@@ -1027,7 +1166,7 @@
   <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1041,19 +1180,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1095,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>12</v>
@@ -1109,21 +1248,22 @@
       <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G34" si="0">(D3*F3)/E3</f>
         <v>12.5</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="5">
-        <v>15</v>
+        <f t="shared" ref="J3:J31" si="1">(G3^2)/10</f>
+        <v>15.625</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -1143,21 +1283,22 @@
       <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="5">
-        <v>20</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>111</v>
+        <f t="shared" si="1"/>
+        <v>15.625</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -1177,21 +1318,22 @@
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="5">
-        <v>20</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>111</v>
+        <f t="shared" si="1"/>
+        <v>15.625</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -1199,7 +1341,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>17</v>
@@ -1213,21 +1355,22 @@
       <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="5">
-        <v>40</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>112</v>
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1235,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
@@ -1249,21 +1392,22 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="5">
-        <v>40</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>111</v>
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -1271,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
@@ -1285,21 +1429,22 @@
       <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="5">
-        <v>40</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>111</v>
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -1319,21 +1464,22 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="5">
-        <v>50</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>111</v>
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -1353,21 +1499,22 @@
       <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="5">
-        <v>75</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>119</v>
+        <f t="shared" si="1"/>
+        <v>25.6</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -1387,21 +1534,22 @@
       <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="5">
-        <v>80</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>111</v>
+        <f t="shared" si="1"/>
+        <v>32.4</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -1421,19 +1569,22 @@
       <c r="F12" s="5">
         <v>2</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="8" t="s">
-        <v>111</v>
+      <c r="J12" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -1453,19 +1604,22 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="8" t="s">
-        <v>111</v>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -1485,19 +1639,22 @@
       <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="8" t="s">
-        <v>111</v>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -1506,7 +1663,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
@@ -1517,19 +1674,22 @@
       <c r="F15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="8" t="s">
-        <v>111</v>
+      <c r="J15" s="5">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -1538,7 +1698,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5">
         <v>25</v>
@@ -1549,19 +1709,22 @@
       <c r="F16" s="5">
         <v>1</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="8" t="s">
-        <v>111</v>
+      <c r="J16" s="5">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1569,10 +1732,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="5">
         <v>30</v>
@@ -1583,19 +1746,22 @@
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="8" t="s">
-        <v>111</v>
+      <c r="J17" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1604,7 +1770,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="D18" s="5">
         <v>6</v>
@@ -1615,19 +1781,22 @@
       <c r="F18" s="5">
         <v>1</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="8" t="s">
-        <v>111</v>
+      <c r="J18" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1636,7 +1805,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5">
         <v>30</v>
@@ -1647,19 +1816,22 @@
       <c r="F19" s="5">
         <v>1</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="8" t="s">
-        <v>111</v>
+      <c r="J19" s="5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1668,7 +1840,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5">
         <v>40</v>
@@ -1679,19 +1851,22 @@
       <c r="F20" s="5">
         <v>1</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="8" t="s">
-        <v>113</v>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1699,10 +1874,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5">
         <v>40</v>
@@ -1713,19 +1888,22 @@
       <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>2</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="8" t="s">
-        <v>113</v>
+      <c r="J21" s="5">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1734,7 +1912,7 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D22" s="5">
         <v>20</v>
@@ -1745,19 +1923,22 @@
       <c r="F22" s="5">
         <v>1</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>2</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="8" t="s">
-        <v>113</v>
+      <c r="J22" s="5">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -1766,7 +1947,7 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5">
         <v>30</v>
@@ -1777,19 +1958,22 @@
       <c r="F23" s="5">
         <v>3</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>2</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="8" t="s">
-        <v>113</v>
+      <c r="J23" s="5">
+        <f t="shared" si="1"/>
+        <v>202.5</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -1798,7 +1982,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24" s="5">
         <v>10</v>
@@ -1809,19 +1993,22 @@
       <c r="F24" s="5">
         <v>1</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <v>2</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="8" t="s">
-        <v>113</v>
+      <c r="J24" s="5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1829,10 +2016,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="5">
         <v>40</v>
@@ -1843,19 +2030,22 @@
       <c r="F25" s="5">
         <v>1</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>2</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="8" t="s">
-        <v>113</v>
+      <c r="J25" s="5">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1864,7 +2054,7 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5">
         <v>40</v>
@@ -1875,19 +2065,22 @@
       <c r="F26" s="5">
         <v>3</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <v>2</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="8" t="s">
-        <v>113</v>
+      <c r="J26" s="5">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1895,10 +2088,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5">
         <v>60</v>
@@ -1909,19 +2102,22 @@
       <c r="F27" s="5">
         <v>1</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>2</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="8" t="s">
-        <v>113</v>
+      <c r="J27" s="5">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -1930,7 +2126,7 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="D28" s="5">
         <v>25</v>
@@ -1941,19 +2137,22 @@
       <c r="F28" s="5">
         <v>1</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <v>2</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="8" t="s">
-        <v>113</v>
+      <c r="J28" s="5">
+        <f t="shared" si="1"/>
+        <v>390.625</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -1961,10 +2160,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5">
         <v>85</v>
@@ -1975,21 +2174,22 @@
       <c r="F29" s="5">
         <v>1</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>3</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J29" s="5">
-        <v>850</v>
+        <f t="shared" si="1"/>
+        <v>722.5</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -1998,7 +2198,7 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D30" s="5">
         <v>30</v>
@@ -2009,21 +2209,22 @@
       <c r="F30" s="5">
         <v>1</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>3</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="5">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="K30" s="8" t="s">
-        <v>116</v>
+      <c r="K30" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -2032,7 +2233,7 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D31" s="5">
         <v>50</v>
@@ -2043,21 +2244,22 @@
       <c r="F31" s="5">
         <v>4</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>3</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="5">
-        <v>1500</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>116</v>
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -2065,10 +2267,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D32" s="5">
         <v>110</v>
@@ -2079,21 +2281,22 @@
       <c r="F32" s="5">
         <v>1</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>3</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J32" s="5">
-        <v>2000</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>116</v>
+        <f>(G32^2)/10</f>
+        <v>1210</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -2101,10 +2304,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="D33" s="5">
         <v>50</v>
@@ -2115,21 +2318,22 @@
       <c r="F33" s="5">
         <v>1</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>3</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="5">
+        <f t="shared" ref="J33:J60" si="2">(G33^2)/10</f>
         <v>1000</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>118</v>
+      <c r="K33" s="17" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -2137,10 +2341,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D34" s="5">
         <v>45</v>
@@ -2151,21 +2355,22 @@
       <c r="F34" s="5">
         <v>1</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <v>3</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J34" s="5">
-        <v>900</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>116</v>
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -2173,10 +2378,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D35" s="5">
         <v>20</v>
@@ -2187,21 +2392,22 @@
       <c r="F35" s="5">
         <v>1</v>
       </c>
-      <c r="G35" s="11">
-        <f t="shared" ref="G35:G68" si="1">(D35*F35)/E35</f>
+      <c r="G35" s="10">
+        <f t="shared" ref="G35:G68" si="3">(D35*F35)/E35</f>
         <v>100</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="14">
         <v>3</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J35" s="5">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>116</v>
+      <c r="K35" s="17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -2209,10 +2415,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D36" s="5">
         <v>40</v>
@@ -2223,21 +2429,22 @@
       <c r="F36" s="5">
         <v>1</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <f>(D36*F36)/E36</f>
         <v>80</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>3</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J36" s="5">
-        <v>850</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>116</v>
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -2245,10 +2452,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D37" s="5">
         <v>40</v>
@@ -2259,21 +2466,22 @@
       <c r="F37" s="5">
         <v>1</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <f>(D37*F37)/E37</f>
         <v>80</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="14">
         <v>3</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J37" s="5">
-        <v>850</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>116</v>
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -2281,10 +2489,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D38" s="5">
         <v>35</v>
@@ -2295,19 +2503,22 @@
       <c r="F38" s="5">
         <v>1</v>
       </c>
-      <c r="G38" s="11">
-        <f t="shared" si="1"/>
+      <c r="G38" s="10">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <v>2</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="8" t="s">
-        <v>113</v>
+      <c r="J38" s="5">
+        <f t="shared" si="2"/>
+        <v>490</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -2315,10 +2526,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D39" s="5">
         <v>35</v>
@@ -2329,19 +2540,22 @@
       <c r="F39" s="5">
         <v>1</v>
       </c>
-      <c r="G39" s="11">
-        <f t="shared" si="1"/>
+      <c r="G39" s="10">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <v>2</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="8" t="s">
-        <v>113</v>
+      <c r="J39" s="5">
+        <f t="shared" si="2"/>
+        <v>490</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
@@ -2349,10 +2563,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="D40" s="5">
         <v>25</v>
@@ -2363,19 +2577,22 @@
       <c r="F40" s="5">
         <v>1</v>
       </c>
-      <c r="G40" s="11">
-        <f t="shared" si="1"/>
+      <c r="G40" s="10">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <v>2</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="5"/>
-      <c r="K40" s="8" t="s">
-        <v>113</v>
+      <c r="J40" s="5">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
@@ -2383,10 +2600,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D41" s="5">
         <v>25</v>
@@ -2397,19 +2614,22 @@
       <c r="F41" s="5">
         <v>1</v>
       </c>
-      <c r="G41" s="11">
-        <f t="shared" si="1"/>
+      <c r="G41" s="10">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="12">
         <v>2</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="8" t="s">
-        <v>113</v>
+      <c r="J41" s="5">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
@@ -2417,10 +2637,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D42" s="5">
         <v>25</v>
@@ -2431,19 +2651,22 @@
       <c r="F42" s="5">
         <v>1</v>
       </c>
-      <c r="G42" s="11">
-        <f t="shared" si="1"/>
+      <c r="G42" s="10">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <v>2</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="8" t="s">
-        <v>113</v>
+      <c r="J42" s="5">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="K42" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -2451,10 +2674,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D43" s="5">
         <v>50</v>
@@ -2465,19 +2688,22 @@
       <c r="F43" s="5">
         <v>1</v>
       </c>
-      <c r="G43" s="11">
-        <f t="shared" si="1"/>
+      <c r="G43" s="10">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="12">
         <v>2</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="8" t="s">
-        <v>113</v>
+      <c r="J43" s="5">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
@@ -2485,10 +2711,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D44" s="5">
         <v>8</v>
@@ -2499,19 +2725,22 @@
       <c r="F44" s="5">
         <v>1</v>
       </c>
-      <c r="G44" s="11">
-        <f t="shared" si="1"/>
+      <c r="G44" s="10">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="12">
         <v>2</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="8" t="s">
-        <v>113</v>
+      <c r="J44" s="5">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -2519,10 +2748,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="D45" s="5">
         <v>8</v>
@@ -2533,19 +2762,22 @@
       <c r="F45" s="5">
         <v>1</v>
       </c>
-      <c r="G45" s="11">
-        <f t="shared" si="1"/>
+      <c r="G45" s="10">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="12">
         <v>2</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="8" t="s">
-        <v>113</v>
+      <c r="J45" s="5">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -2553,10 +2785,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D46" s="5">
         <v>25</v>
@@ -2567,19 +2799,22 @@
       <c r="F46" s="5">
         <v>1</v>
       </c>
-      <c r="G46" s="11">
-        <f t="shared" si="1"/>
+      <c r="G46" s="10">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="12">
         <v>2</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="5"/>
-      <c r="K46" s="8" t="s">
-        <v>113</v>
+      <c r="J46" s="5">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
@@ -2587,10 +2822,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D47" s="5">
         <v>40</v>
@@ -2601,19 +2836,22 @@
       <c r="F47" s="5">
         <v>1</v>
       </c>
-      <c r="G47" s="11">
-        <f>(D47*F47)/E47</f>
+      <c r="G47" s="10">
+        <f t="shared" ref="G47:G60" si="4">(D47*F47)/E47</f>
         <v>40</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="12">
         <v>2</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
       <c r="K47" s="8" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
@@ -2621,10 +2859,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D48" s="5">
         <v>35</v>
@@ -2635,19 +2873,22 @@
       <c r="F48" s="5">
         <v>1</v>
       </c>
-      <c r="G48" s="11">
-        <f>(D48*F48)/E48</f>
+      <c r="G48" s="10">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="13">
         <v>2</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="8" t="s">
-        <v>115</v>
+      <c r="J48" s="5">
+        <f t="shared" si="2"/>
+        <v>122.5</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -2655,10 +2896,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D49" s="5">
         <v>35</v>
@@ -2669,19 +2910,22 @@
       <c r="F49" s="5">
         <v>1</v>
       </c>
-      <c r="G49" s="11">
-        <f>(D49*F49)/E49</f>
+      <c r="G49" s="10">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="12">
         <v>2</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="8" t="s">
-        <v>114</v>
+      <c r="J49" s="5">
+        <f t="shared" si="2"/>
+        <v>122.5</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -2689,10 +2933,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D50" s="5">
         <v>35</v>
@@ -2703,19 +2947,22 @@
       <c r="F50" s="5">
         <v>1</v>
       </c>
-      <c r="G50" s="11">
-        <f>(D50*F50)/E50</f>
+      <c r="G50" s="10">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="12">
         <v>2</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="8" t="s">
-        <v>114</v>
+      <c r="J50" s="5">
+        <f t="shared" si="2"/>
+        <v>122.5</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -2723,10 +2970,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D51" s="5">
         <v>35</v>
@@ -2737,19 +2984,22 @@
       <c r="F51" s="5">
         <v>1</v>
       </c>
-      <c r="G51" s="11">
-        <f>(D51*F51)/E51</f>
+      <c r="G51" s="10">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="12">
         <v>2</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="8" t="s">
-        <v>113</v>
+      <c r="J51" s="5">
+        <f t="shared" si="2"/>
+        <v>122.5</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
@@ -2757,10 +3007,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D52" s="5">
         <v>30</v>
@@ -2771,19 +3021,22 @@
       <c r="F52" s="5">
         <v>1</v>
       </c>
-      <c r="G52" s="11">
-        <f>(D52*F52)/E52</f>
+      <c r="G52" s="10">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="11">
         <v>1</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="8" t="s">
-        <v>111</v>
+      <c r="J52" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -2791,10 +3044,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D53" s="5">
         <v>30</v>
@@ -2805,19 +3058,22 @@
       <c r="F53" s="5">
         <v>1</v>
       </c>
-      <c r="G53" s="11">
-        <f>(D53*F53)/E53</f>
+      <c r="G53" s="10">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="11">
         <v>1</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="8" t="s">
-        <v>111</v>
+      <c r="J53" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
@@ -2825,10 +3081,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D54" s="5">
         <v>25</v>
@@ -2839,19 +3095,22 @@
       <c r="F54" s="5">
         <v>1</v>
       </c>
-      <c r="G54" s="11">
-        <f>(D54*F54)/E54</f>
+      <c r="G54" s="10">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="11">
         <v>1</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="8" t="s">
-        <v>111</v>
+      <c r="J54" s="5">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
@@ -2859,10 +3118,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D55" s="5">
         <v>25</v>
@@ -2873,19 +3132,22 @@
       <c r="F55" s="5">
         <v>1</v>
       </c>
-      <c r="G55" s="11">
-        <f>(D55*F55)/E55</f>
+      <c r="G55" s="10">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>1</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="8" t="s">
-        <v>111</v>
+      <c r="J55" s="5">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
@@ -2893,10 +3155,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D56" s="5">
         <v>25</v>
@@ -2907,19 +3169,22 @@
       <c r="F56" s="5">
         <v>1</v>
       </c>
-      <c r="G56" s="11">
-        <f>(D56*F56)/E56</f>
+      <c r="G56" s="10">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="H56" s="12">
-        <v>1</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="H56" s="11">
+        <v>1</v>
+      </c>
+      <c r="I56" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="8" t="s">
-        <v>111</v>
+      <c r="J56" s="5">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -2927,10 +3192,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D57" s="5">
         <v>30</v>
@@ -2941,19 +3206,22 @@
       <c r="F57" s="5">
         <v>1</v>
       </c>
-      <c r="G57" s="11">
-        <f>(D57*F57)/E57</f>
+      <c r="G57" s="10">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="H57" s="12">
-        <v>1</v>
-      </c>
-      <c r="I57" s="10" t="s">
+      <c r="H57" s="11">
+        <v>1</v>
+      </c>
+      <c r="I57" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="8" t="s">
-        <v>111</v>
+      <c r="J57" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
@@ -2961,10 +3229,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D58" s="5">
         <v>20</v>
@@ -2975,19 +3243,22 @@
       <c r="F58" s="5">
         <v>1</v>
       </c>
-      <c r="G58" s="11">
-        <f>(D58*F58)/E58</f>
+      <c r="G58" s="10">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>1</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="8" t="s">
-        <v>111</v>
+      <c r="J58" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K58" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -2995,10 +3266,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D59" s="5">
         <v>20</v>
@@ -3009,19 +3280,22 @@
       <c r="F59" s="5">
         <v>1</v>
       </c>
-      <c r="G59" s="11">
-        <f>(D59*F59)/E59</f>
+      <c r="G59" s="10">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>1</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="8" t="s">
-        <v>111</v>
+      <c r="J59" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
@@ -3029,10 +3303,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D60" s="5">
         <v>15</v>
@@ -3043,19 +3317,22 @@
       <c r="F60" s="5">
         <v>1</v>
       </c>
-      <c r="G60" s="11">
-        <f>(D60*F60)/E60</f>
+      <c r="G60" s="10">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="H60" s="12">
-        <v>1</v>
-      </c>
-      <c r="I60" s="10" t="s">
+      <c r="H60" s="11">
+        <v>1</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J60" s="5"/>
+      <c r="J60" s="5">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
       <c r="K60" s="8" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
@@ -3082,7 +3359,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H63" s="7"/>
@@ -3100,7 +3377,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H64" s="7"/>
@@ -3118,7 +3395,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H65" s="7"/>
@@ -3136,7 +3413,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H66" s="7"/>
@@ -3154,7 +3431,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H67" s="7"/>
@@ -3172,7 +3449,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H68" s="7"/>
@@ -3190,7 +3467,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="7" t="e">
-        <f t="shared" ref="G69:G100" si="2">(D69*F69)/E69</f>
+        <f t="shared" ref="G69:G100" si="5">(D69*F69)/E69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H69" s="7"/>
@@ -3208,7 +3485,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H70" s="7"/>
@@ -3226,7 +3503,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H71" s="7"/>
@@ -3244,7 +3521,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H72" s="7"/>
@@ -3262,7 +3539,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H73" s="7"/>
@@ -3280,7 +3557,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H74" s="7"/>
@@ -3298,7 +3575,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H75" s="7"/>
@@ -3316,7 +3593,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H76" s="7"/>
@@ -3334,7 +3611,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H77" s="7"/>
@@ -3352,7 +3629,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H78" s="7"/>
@@ -3370,7 +3647,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H79" s="7"/>
@@ -3388,7 +3665,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H80" s="7"/>
@@ -3406,7 +3683,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H81" s="7"/>
@@ -3424,7 +3701,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H82" s="7"/>
@@ -3442,7 +3719,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H83" s="7"/>
@@ -3460,7 +3737,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H84" s="7"/>
@@ -3478,7 +3755,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H85" s="7"/>
@@ -3496,7 +3773,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H86" s="7"/>
@@ -3514,7 +3791,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H87" s="7"/>
@@ -3532,7 +3809,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H88" s="7"/>
@@ -3550,7 +3827,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H89" s="7"/>
@@ -3568,7 +3845,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H90" s="7"/>
@@ -3586,7 +3863,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H91" s="7"/>
@@ -3604,7 +3881,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H92" s="7"/>
@@ -3622,7 +3899,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H93" s="7"/>
@@ -3640,7 +3917,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H94" s="7"/>
@@ -3658,7 +3935,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H95" s="7"/>
@@ -3676,7 +3953,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H96" s="7"/>
@@ -3694,7 +3971,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H97" s="7"/>
@@ -3712,7 +3989,7 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H98" s="7"/>
@@ -3730,7 +4007,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H99" s="7"/>
@@ -3748,7 +4025,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H100" s="7"/>
@@ -3766,7 +4043,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="7" t="e">
-        <f t="shared" ref="G101:G132" si="3">(D101*F101)/E101</f>
+        <f t="shared" ref="G101:G132" si="6">(D101*F101)/E101</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H101" s="7"/>
@@ -3784,7 +4061,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H102" s="7"/>
@@ -3802,7 +4079,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H103" s="7"/>
@@ -3820,7 +4097,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H104" s="7"/>
@@ -3838,7 +4115,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H105" s="7"/>
@@ -3856,7 +4133,7 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H106" s="7"/>
@@ -3874,7 +4151,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H107" s="7"/>
@@ -3892,7 +4169,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H108" s="7"/>
@@ -3910,7 +4187,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H109" s="7"/>
@@ -3928,7 +4205,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H110" s="7"/>
@@ -3946,7 +4223,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H111" s="7"/>
@@ -3964,7 +4241,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H112" s="7"/>
@@ -3982,7 +4259,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H113" s="7"/>
@@ -4000,7 +4277,7 @@
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H114" s="7"/>
@@ -4018,7 +4295,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H115" s="7"/>
@@ -4036,7 +4313,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H116" s="7"/>
@@ -4054,7 +4331,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H117" s="7"/>
@@ -4072,7 +4349,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H118" s="7"/>
@@ -4090,7 +4367,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H119" s="7"/>
@@ -4108,7 +4385,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H120" s="7"/>
@@ -4124,7 +4401,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H121" s="7"/>
@@ -4140,7 +4417,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H122" s="7"/>
@@ -4156,7 +4433,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H123" s="7"/>
@@ -4172,7 +4449,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H124" s="7"/>
@@ -4188,7 +4465,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H125" s="7"/>
@@ -4204,7 +4481,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H126" s="7"/>
@@ -4220,7 +4497,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H127" s="7"/>
@@ -4236,7 +4513,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H128" s="7"/>
@@ -4252,7 +4529,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
       <c r="G129" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H129" s="7"/>
@@ -4268,7 +4545,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H130" s="7"/>
@@ -4284,7 +4561,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H131" s="7"/>
@@ -4300,7 +4577,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H132" s="7"/>
@@ -4316,7 +4593,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="7" t="e">
-        <f t="shared" ref="G133:G164" si="4">(D133*F133)/E133</f>
+        <f t="shared" ref="G133:G164" si="7">(D133*F133)/E133</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H133" s="7"/>
@@ -4332,7 +4609,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H134" s="7"/>
@@ -4348,7 +4625,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H135" s="7"/>
@@ -4364,7 +4641,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H136" s="7"/>
@@ -4380,7 +4657,7 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H137" s="7"/>
@@ -4396,7 +4673,7 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H138" s="7"/>
@@ -4412,7 +4689,7 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H139" s="7"/>
@@ -4428,7 +4705,7 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H140" s="7"/>
@@ -4444,7 +4721,7 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H141" s="7"/>
@@ -4460,7 +4737,7 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H142" s="7"/>
@@ -4476,7 +4753,7 @@
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H143" s="7"/>
@@ -4492,7 +4769,7 @@
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H144" s="7"/>
@@ -4508,7 +4785,7 @@
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H145" s="7"/>
@@ -4524,7 +4801,7 @@
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H146" s="7"/>
@@ -4540,7 +4817,7 @@
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H147" s="7"/>
@@ -4556,7 +4833,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H148" s="7"/>
@@ -4572,7 +4849,7 @@
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H149" s="7"/>
@@ -4588,7 +4865,7 @@
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H150" s="7"/>
@@ -4604,7 +4881,7 @@
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H151" s="7"/>
@@ -4620,7 +4897,7 @@
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H152" s="7"/>
@@ -4636,7 +4913,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H153" s="7"/>
@@ -4652,7 +4929,7 @@
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H154" s="7"/>
@@ -4668,7 +4945,7 @@
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H155" s="7"/>
@@ -4684,7 +4961,7 @@
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H156" s="7"/>
@@ -4700,7 +4977,7 @@
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H157" s="7"/>
@@ -4716,7 +4993,7 @@
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H158" s="7"/>
@@ -4732,7 +5009,7 @@
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H159" s="7"/>
@@ -4748,7 +5025,7 @@
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H160" s="7"/>
@@ -4764,7 +5041,7 @@
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H161" s="7"/>
@@ -4780,7 +5057,7 @@
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H162" s="7"/>
@@ -4796,7 +5073,7 @@
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H163" s="7"/>
@@ -4812,7 +5089,7 @@
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H164" s="7"/>
@@ -4828,7 +5105,7 @@
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="7" t="e">
-        <f t="shared" ref="G165:G196" si="5">(D165*F165)/E165</f>
+        <f t="shared" ref="G165:G196" si="8">(D165*F165)/E165</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H165" s="7"/>
@@ -4844,7 +5121,7 @@
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H166" s="7"/>
@@ -4860,7 +5137,7 @@
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H167" s="7"/>
@@ -4876,7 +5153,7 @@
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H168" s="7"/>
@@ -4892,7 +5169,7 @@
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H169" s="7"/>
@@ -4908,7 +5185,7 @@
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H170" s="7"/>
@@ -4924,7 +5201,7 @@
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H171" s="7"/>
@@ -4940,7 +5217,7 @@
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H172" s="7"/>
@@ -4956,7 +5233,7 @@
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H173" s="7"/>
@@ -4972,7 +5249,7 @@
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H174" s="7"/>
@@ -4988,7 +5265,7 @@
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H175" s="7"/>
@@ -5004,7 +5281,7 @@
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H176" s="7"/>
@@ -5020,7 +5297,7 @@
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H177" s="7"/>
@@ -5036,7 +5313,7 @@
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H178" s="7"/>
@@ -5052,7 +5329,7 @@
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H179" s="7"/>
@@ -5068,7 +5345,7 @@
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H180" s="7"/>
@@ -5084,7 +5361,7 @@
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H181" s="7"/>
@@ -5100,7 +5377,7 @@
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H182" s="7"/>
@@ -5116,7 +5393,7 @@
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H183" s="7"/>
@@ -5132,7 +5409,7 @@
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H184" s="7"/>
@@ -5148,7 +5425,7 @@
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H185" s="7"/>
@@ -5164,7 +5441,7 @@
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H186" s="7"/>
@@ -5180,7 +5457,7 @@
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H187" s="7"/>
@@ -5196,7 +5473,7 @@
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H188" s="7"/>
@@ -5212,7 +5489,7 @@
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H189" s="7"/>
@@ -5228,7 +5505,7 @@
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H190" s="7"/>
@@ -5244,7 +5521,7 @@
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H191" s="7"/>
@@ -5260,7 +5537,7 @@
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H192" s="7"/>
@@ -5276,7 +5553,7 @@
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H193" s="7"/>
@@ -5292,7 +5569,7 @@
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H194" s="7"/>
@@ -5308,7 +5585,7 @@
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H195" s="7"/>
@@ -5324,7 +5601,7 @@
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H196" s="7"/>
@@ -5340,7 +5617,7 @@
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="7" t="e">
-        <f t="shared" ref="G197:G202" si="6">(D197*F197)/E197</f>
+        <f t="shared" ref="G197:G202" si="9">(D197*F197)/E197</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H197" s="7"/>
@@ -5356,7 +5633,7 @@
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="7" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H198" s="7"/>
@@ -5372,7 +5649,7 @@
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="7" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H199" s="7"/>
@@ -5388,7 +5665,7 @@
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="7" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H200" s="7"/>
@@ -5404,7 +5681,7 @@
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="7" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H201" s="7"/>
@@ -5420,7 +5697,7 @@
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="7" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H202" s="7"/>

--- a/Copie deliste_outils.xlsx
+++ b/Copie deliste_outils.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Liste des outils</t>
   </si>
@@ -426,9 +426,6 @@
     <t>Projectilateur à Pepsi</t>
   </si>
   <si>
-    <t>RÉGULIER : Attention! Cette crème glacé</t>
-  </si>
-  <si>
     <t>LÉGENDAIRE : Attention! Ce lance barbotine est réputé pour donner les pires "gels de cerveau".</t>
   </si>
   <si>
@@ -508,6 +505,18 @@
   </si>
   <si>
     <t>RÉGULIER : Personne ne sait pourquoi, mais les toutous ont une terrible phobie des ballons de plage.</t>
+  </si>
+  <si>
+    <t>RARE : Imaginez vous une noix de coco projeté à haute vitesse. Il y a de quoi faire peur!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Saviez-vous que le nom scientifique de la banane (musa sapientum) signifit homme rusé? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE : Saviez-vous qu'un ananas prend 3 ans à pousser? </t>
+  </si>
+  <si>
+    <t>RÉGULIER : Saviez-vous qu'un américain moyen consomme environ 23 litres de crème glacée par année? Il y a dequoi rendre jaloux ces gourmants toutous!</t>
   </si>
 </sst>
 </file>
@@ -612,7 +621,7 @@
       <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,7 +810,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,14 +838,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="7"/>
@@ -1166,7 +1182,7 @@
   <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1180,19 +1196,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1297,7 +1313,7 @@
         <f t="shared" si="1"/>
         <v>15.625</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1332,7 +1348,7 @@
         <f t="shared" si="1"/>
         <v>15.625</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1369,8 +1385,8 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>136</v>
+      <c r="K6" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -1406,8 +1422,8 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>137</v>
+      <c r="K7" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -1443,8 +1459,8 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>135</v>
+      <c r="K8" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -1478,8 +1494,8 @@
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>134</v>
+      <c r="K9" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -1513,7 +1529,7 @@
         <f t="shared" si="1"/>
         <v>25.6</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1548,8 +1564,8 @@
         <f t="shared" si="1"/>
         <v>32.4</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>154</v>
+      <c r="K11" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -1583,8 +1599,8 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>138</v>
+      <c r="K12" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -1618,7 +1634,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1653,7 +1669,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="16" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1688,7 +1704,7 @@
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1723,8 +1739,8 @@
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>130</v>
+      <c r="K16" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1760,8 +1776,8 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="K17" s="20" t="s">
-        <v>142</v>
+      <c r="K17" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1795,8 +1811,8 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="K18" s="17" t="s">
-        <v>151</v>
+      <c r="K18" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1830,8 +1846,8 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="K19" s="19" t="s">
-        <v>133</v>
+      <c r="K19" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1865,7 +1881,7 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1902,7 +1918,7 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="19" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1938,7 +1954,7 @@
         <v>160</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -1972,8 +1988,8 @@
         <f t="shared" si="1"/>
         <v>202.5</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>141</v>
+      <c r="K23" s="16" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -2007,7 +2023,7 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="19" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2044,7 +2060,7 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="21" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2079,8 +2095,8 @@
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="K26" s="17" t="s">
-        <v>140</v>
+      <c r="K26" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -2116,7 +2132,7 @@
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="19" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2151,8 +2167,8 @@
         <f t="shared" si="1"/>
         <v>390.625</v>
       </c>
-      <c r="K28" s="17" t="s">
-        <v>152</v>
+      <c r="K28" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -2223,8 +2239,8 @@
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="K30" s="17" t="s">
-        <v>129</v>
+      <c r="K30" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -2258,8 +2274,8 @@
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="K31" s="17" t="s">
-        <v>139</v>
+      <c r="K31" s="16" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -2295,7 +2311,7 @@
         <f>(G32^2)/10</f>
         <v>1210</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="K32" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2332,8 +2348,8 @@
         <f t="shared" ref="J33:J60" si="2">(G33^2)/10</f>
         <v>1000</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>147</v>
+      <c r="K33" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -2369,8 +2385,8 @@
         <f t="shared" si="2"/>
         <v>810</v>
       </c>
-      <c r="K34" s="17" t="s">
-        <v>148</v>
+      <c r="K34" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -2406,8 +2422,8 @@
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="K35" s="17" t="s">
-        <v>143</v>
+      <c r="K35" s="16" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -2443,8 +2459,8 @@
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
-      <c r="K36" s="17" t="s">
-        <v>132</v>
+      <c r="K36" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -2480,8 +2496,8 @@
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
-      <c r="K37" s="17" t="s">
-        <v>128</v>
+      <c r="K37" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -2517,7 +2533,7 @@
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="K38" s="16" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2554,8 +2570,8 @@
         <f t="shared" si="2"/>
         <v>490</v>
       </c>
-      <c r="K39" s="17" t="s">
-        <v>150</v>
+      <c r="K39" s="16" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
@@ -2591,8 +2607,8 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K40" s="17" t="s">
-        <v>131</v>
+      <c r="K40" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
@@ -2628,8 +2644,8 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K41" s="17" t="s">
-        <v>149</v>
+      <c r="K41" s="16" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
@@ -2666,7 +2682,7 @@
         <v>250</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -2703,7 +2719,7 @@
         <v>250</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
@@ -2739,8 +2755,8 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K44" s="17" t="s">
-        <v>145</v>
+      <c r="K44" s="16" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -2776,7 +2792,7 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="K45" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2813,7 +2829,7 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="15" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2887,8 +2903,8 @@
         <f t="shared" si="2"/>
         <v>122.5</v>
       </c>
-      <c r="K48" s="17" t="s">
-        <v>144</v>
+      <c r="K48" s="16" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -2924,7 +2940,7 @@
         <f t="shared" si="2"/>
         <v>122.5</v>
       </c>
-      <c r="K49" s="18" t="s">
+      <c r="K49" s="17" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2961,7 +2977,7 @@
         <f t="shared" si="2"/>
         <v>122.5</v>
       </c>
-      <c r="K50" s="18" t="s">
+      <c r="K50" s="17" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2998,7 +3014,7 @@
         <f t="shared" si="2"/>
         <v>122.5</v>
       </c>
-      <c r="K51" s="18" t="s">
+      <c r="K51" s="17" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3036,7 +3052,7 @@
         <v>90</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -3072,7 +3088,7 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K53" s="18" t="s">
+      <c r="K53" s="17" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3109,7 +3125,7 @@
         <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
-      <c r="K54" s="18" t="s">
+      <c r="K54" s="17" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3146,7 +3162,7 @@
         <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
-      <c r="K55" s="18" t="s">
+      <c r="K55" s="17" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3183,8 +3199,8 @@
         <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
-      <c r="K56" s="17" t="s">
-        <v>146</v>
+      <c r="K56" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -3220,8 +3236,8 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K57" s="17" t="s">
-        <v>153</v>
+      <c r="K57" s="16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
@@ -3257,7 +3273,7 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K58" s="16" t="s">
+      <c r="K58" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3294,7 +3310,7 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="K59" s="15" t="s">
         <v>91</v>
       </c>
     </row>

--- a/Copie deliste_outils.xlsx
+++ b/Copie deliste_outils.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonymartin/Documents/GitHub/SIM-2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine Mascolo\Documents\Cegep\Session4\Prog\SIM-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE6112D-51CF-4F5F-9BA0-9C57E6934349}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="460" windowWidth="23180" windowHeight="17540"/>
+    <workbookView xWindow="2100" yWindow="460" windowWidth="23180" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -522,8 +523,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,31 +844,31 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="7"/>
-    <cellStyle name="Accent 1" xfId="8"/>
-    <cellStyle name="Accent 2" xfId="9"/>
-    <cellStyle name="Accent 3" xfId="10"/>
-    <cellStyle name="Commentaire" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11"/>
-    <cellStyle name="Footnote" xfId="12"/>
-    <cellStyle name="Heading" xfId="13"/>
+    <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Insatisfaisant" xfId="4" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Neutre" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Status" xfId="14"/>
-    <cellStyle name="Text" xfId="15"/>
+    <cellStyle name="Status" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Text" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Titre 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Titre 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Warning" xfId="16"/>
+    <cellStyle name="Warning" xfId="16" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1178,14 +1179,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
       <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="2" max="3" width="18.83203125" customWidth="1"/>
@@ -1195,22 +1196,22 @@
     <col min="11" max="11" width="118.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -2060,11 +2061,11 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -2648,7 +2649,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -2981,7 +2982,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -3351,21 +3352,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11">
       <c r="A61" s="4"/>
       <c r="H61" s="7"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11">
       <c r="A62" s="4"/>
       <c r="H62" s="7"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>58</v>
       </c>
@@ -3383,7 +3384,7 @@
       <c r="J63" s="5"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>59</v>
       </c>
@@ -3401,7 +3402,7 @@
       <c r="J64" s="5"/>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>60</v>
       </c>
@@ -3419,7 +3420,7 @@
       <c r="J65" s="5"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>61</v>
       </c>
@@ -3437,7 +3438,7 @@
       <c r="J66" s="5"/>
       <c r="K66" s="8"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>62</v>
       </c>
@@ -3455,7 +3456,7 @@
       <c r="J67" s="5"/>
       <c r="K67" s="8"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>63</v>
       </c>
@@ -3473,7 +3474,7 @@
       <c r="J68" s="5"/>
       <c r="K68" s="8"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>64</v>
       </c>
@@ -3491,7 +3492,7 @@
       <c r="J69" s="5"/>
       <c r="K69" s="8"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>65</v>
       </c>
@@ -3509,7 +3510,7 @@
       <c r="J70" s="5"/>
       <c r="K70" s="8"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>66</v>
       </c>
@@ -3527,7 +3528,7 @@
       <c r="J71" s="5"/>
       <c r="K71" s="8"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>67</v>
       </c>
@@ -3545,7 +3546,7 @@
       <c r="J72" s="5"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>68</v>
       </c>
@@ -3563,7 +3564,7 @@
       <c r="J73" s="5"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>69</v>
       </c>
@@ -3581,7 +3582,7 @@
       <c r="J74" s="5"/>
       <c r="K74" s="8"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>70</v>
       </c>
@@ -3599,7 +3600,7 @@
       <c r="J75" s="5"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>71</v>
       </c>
@@ -3617,7 +3618,7 @@
       <c r="J76" s="5"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>72</v>
       </c>
@@ -3635,7 +3636,7 @@
       <c r="J77" s="5"/>
       <c r="K77" s="8"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>73</v>
       </c>
@@ -3653,7 +3654,7 @@
       <c r="J78" s="5"/>
       <c r="K78" s="8"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>74</v>
       </c>
@@ -3671,7 +3672,7 @@
       <c r="J79" s="5"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>75</v>
       </c>
@@ -3689,7 +3690,7 @@
       <c r="J80" s="5"/>
       <c r="K80" s="8"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11">
       <c r="A81" s="4">
         <v>76</v>
       </c>
@@ -3707,7 +3708,7 @@
       <c r="J81" s="5"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11">
       <c r="A82" s="4">
         <v>77</v>
       </c>
@@ -3725,7 +3726,7 @@
       <c r="J82" s="5"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11">
       <c r="A83" s="4">
         <v>78</v>
       </c>
@@ -3743,7 +3744,7 @@
       <c r="J83" s="5"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11">
       <c r="A84" s="4">
         <v>79</v>
       </c>
@@ -3761,7 +3762,7 @@
       <c r="J84" s="5"/>
       <c r="K84" s="8"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11">
       <c r="A85" s="4">
         <v>80</v>
       </c>
@@ -3779,7 +3780,7 @@
       <c r="J85" s="5"/>
       <c r="K85" s="8"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11">
       <c r="A86" s="4">
         <v>81</v>
       </c>
@@ -3797,7 +3798,7 @@
       <c r="J86" s="5"/>
       <c r="K86" s="8"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11">
       <c r="A87" s="4">
         <v>82</v>
       </c>
@@ -3815,7 +3816,7 @@
       <c r="J87" s="5"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11">
       <c r="A88" s="4">
         <v>83</v>
       </c>
@@ -3833,7 +3834,7 @@
       <c r="J88" s="5"/>
       <c r="K88" s="8"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11">
       <c r="A89" s="4">
         <v>84</v>
       </c>
@@ -3851,7 +3852,7 @@
       <c r="J89" s="5"/>
       <c r="K89" s="8"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11">
       <c r="A90" s="4">
         <v>85</v>
       </c>
@@ -3869,7 +3870,7 @@
       <c r="J90" s="5"/>
       <c r="K90" s="8"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11">
       <c r="A91" s="4">
         <v>86</v>
       </c>
@@ -3887,7 +3888,7 @@
       <c r="J91" s="5"/>
       <c r="K91" s="8"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11">
       <c r="A92" s="4">
         <v>87</v>
       </c>
@@ -3905,7 +3906,7 @@
       <c r="J92" s="5"/>
       <c r="K92" s="8"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11">
       <c r="A93" s="4">
         <v>88</v>
       </c>
@@ -3923,7 +3924,7 @@
       <c r="J93" s="5"/>
       <c r="K93" s="8"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11">
       <c r="A94" s="4">
         <v>89</v>
       </c>
@@ -3941,7 +3942,7 @@
       <c r="J94" s="5"/>
       <c r="K94" s="8"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11">
       <c r="A95" s="4">
         <v>90</v>
       </c>
@@ -3959,7 +3960,7 @@
       <c r="J95" s="5"/>
       <c r="K95" s="8"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11">
       <c r="A96" s="4">
         <v>91</v>
       </c>
@@ -3977,7 +3978,7 @@
       <c r="J96" s="5"/>
       <c r="K96" s="8"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11">
       <c r="A97" s="4">
         <v>92</v>
       </c>
@@ -3995,7 +3996,7 @@
       <c r="J97" s="5"/>
       <c r="K97" s="8"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11">
       <c r="A98" s="4">
         <v>93</v>
       </c>
@@ -4013,7 +4014,7 @@
       <c r="J98" s="5"/>
       <c r="K98" s="8"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11">
       <c r="A99" s="4">
         <v>94</v>
       </c>
@@ -4031,7 +4032,7 @@
       <c r="J99" s="5"/>
       <c r="K99" s="8"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11">
       <c r="A100" s="4">
         <v>95</v>
       </c>
@@ -4049,7 +4050,7 @@
       <c r="J100" s="5"/>
       <c r="K100" s="8"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11">
       <c r="A101" s="4">
         <v>96</v>
       </c>
@@ -4067,7 +4068,7 @@
       <c r="J101" s="5"/>
       <c r="K101" s="8"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11">
       <c r="A102" s="4">
         <v>97</v>
       </c>
@@ -4085,7 +4086,7 @@
       <c r="J102" s="5"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11">
       <c r="A103" s="4">
         <v>98</v>
       </c>
@@ -4103,7 +4104,7 @@
       <c r="J103" s="5"/>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11">
       <c r="A104" s="4">
         <v>99</v>
       </c>
@@ -4121,7 +4122,7 @@
       <c r="J104" s="5"/>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11">
       <c r="A105" s="4">
         <v>100</v>
       </c>
@@ -4139,7 +4140,7 @@
       <c r="J105" s="5"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11">
       <c r="A106" s="4">
         <v>101</v>
       </c>
@@ -4157,7 +4158,7 @@
       <c r="J106" s="5"/>
       <c r="K106" s="8"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11">
       <c r="A107" s="4">
         <v>102</v>
       </c>
@@ -4175,7 +4176,7 @@
       <c r="J107" s="5"/>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11">
       <c r="A108" s="4">
         <v>103</v>
       </c>
@@ -4193,7 +4194,7 @@
       <c r="J108" s="5"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11">
       <c r="A109" s="4">
         <v>104</v>
       </c>
@@ -4211,7 +4212,7 @@
       <c r="J109" s="5"/>
       <c r="K109" s="8"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11">
       <c r="A110" s="4">
         <v>105</v>
       </c>
@@ -4229,7 +4230,7 @@
       <c r="J110" s="5"/>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11">
       <c r="A111" s="4">
         <v>106</v>
       </c>
@@ -4247,7 +4248,7 @@
       <c r="J111" s="5"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11">
       <c r="A112" s="4">
         <v>107</v>
       </c>
@@ -4265,7 +4266,7 @@
       <c r="J112" s="5"/>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:11">
       <c r="A113" s="4">
         <v>108</v>
       </c>
@@ -4283,7 +4284,7 @@
       <c r="J113" s="5"/>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:11">
       <c r="A114" s="4">
         <v>109</v>
       </c>
@@ -4301,7 +4302,7 @@
       <c r="J114" s="5"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:11">
       <c r="A115" s="4">
         <v>110</v>
       </c>
@@ -4319,7 +4320,7 @@
       <c r="J115" s="5"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:11">
       <c r="A116" s="4">
         <v>111</v>
       </c>
@@ -4337,7 +4338,7 @@
       <c r="J116" s="5"/>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:11">
       <c r="A117" s="4">
         <v>112</v>
       </c>
@@ -4355,7 +4356,7 @@
       <c r="J117" s="5"/>
       <c r="K117" s="8"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:11">
       <c r="A118" s="4">
         <v>113</v>
       </c>
@@ -4373,7 +4374,7 @@
       <c r="J118" s="5"/>
       <c r="K118" s="8"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:11">
       <c r="A119" s="4">
         <v>114</v>
       </c>
@@ -4391,7 +4392,7 @@
       <c r="J119" s="5"/>
       <c r="K119" s="8"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:11">
       <c r="A120" s="4">
         <v>115</v>
       </c>
@@ -4409,7 +4410,7 @@
       <c r="J120" s="5"/>
       <c r="K120" s="8"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:11">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
@@ -4425,7 +4426,7 @@
       <c r="J121" s="5"/>
       <c r="K121" s="8"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:11">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
@@ -4441,7 +4442,7 @@
       <c r="J122" s="5"/>
       <c r="K122" s="8"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:11">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
@@ -4457,7 +4458,7 @@
       <c r="J123" s="5"/>
       <c r="K123" s="8"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:11">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6"/>
@@ -4473,7 +4474,7 @@
       <c r="J124" s="5"/>
       <c r="K124" s="8"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:11">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6"/>
@@ -4489,7 +4490,7 @@
       <c r="J125" s="5"/>
       <c r="K125" s="8"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:11">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6"/>
@@ -4505,7 +4506,7 @@
       <c r="J126" s="5"/>
       <c r="K126" s="8"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:11">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
@@ -4521,7 +4522,7 @@
       <c r="J127" s="5"/>
       <c r="K127" s="8"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:11">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
@@ -4537,7 +4538,7 @@
       <c r="J128" s="5"/>
       <c r="K128" s="8"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:11">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
@@ -4553,7 +4554,7 @@
       <c r="J129" s="5"/>
       <c r="K129" s="8"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
@@ -4569,7 +4570,7 @@
       <c r="J130" s="5"/>
       <c r="K130" s="8"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
@@ -4585,7 +4586,7 @@
       <c r="J131" s="5"/>
       <c r="K131" s="8"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
@@ -4601,7 +4602,7 @@
       <c r="J132" s="5"/>
       <c r="K132" s="8"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:11">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
@@ -4617,7 +4618,7 @@
       <c r="J133" s="5"/>
       <c r="K133" s="8"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:11">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="6"/>
@@ -4633,7 +4634,7 @@
       <c r="J134" s="5"/>
       <c r="K134" s="8"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:11">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
@@ -4649,7 +4650,7 @@
       <c r="J135" s="5"/>
       <c r="K135" s="8"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="6"/>
@@ -4665,7 +4666,7 @@
       <c r="J136" s="5"/>
       <c r="K136" s="8"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:11">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
@@ -4681,7 +4682,7 @@
       <c r="J137" s="5"/>
       <c r="K137" s="8"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:11">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
@@ -4697,7 +4698,7 @@
       <c r="J138" s="5"/>
       <c r="K138" s="8"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
@@ -4713,7 +4714,7 @@
       <c r="J139" s="5"/>
       <c r="K139" s="8"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
@@ -4729,7 +4730,7 @@
       <c r="J140" s="5"/>
       <c r="K140" s="8"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:11">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
@@ -4745,7 +4746,7 @@
       <c r="J141" s="5"/>
       <c r="K141" s="8"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
@@ -4761,7 +4762,7 @@
       <c r="J142" s="5"/>
       <c r="K142" s="8"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:11">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6"/>
@@ -4777,7 +4778,7 @@
       <c r="J143" s="5"/>
       <c r="K143" s="8"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:11">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
@@ -4793,7 +4794,7 @@
       <c r="J144" s="5"/>
       <c r="K144" s="8"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:11">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6"/>
@@ -4809,7 +4810,7 @@
       <c r="J145" s="5"/>
       <c r="K145" s="8"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:11">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6"/>
@@ -4825,7 +4826,7 @@
       <c r="J146" s="5"/>
       <c r="K146" s="8"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:11">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6"/>
@@ -4841,7 +4842,7 @@
       <c r="J147" s="5"/>
       <c r="K147" s="8"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:11">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="6"/>
@@ -4857,7 +4858,7 @@
       <c r="J148" s="5"/>
       <c r="K148" s="8"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:11">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
@@ -4873,7 +4874,7 @@
       <c r="J149" s="5"/>
       <c r="K149" s="8"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:11">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="6"/>
@@ -4889,7 +4890,7 @@
       <c r="J150" s="5"/>
       <c r="K150" s="8"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:11">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="6"/>
@@ -4905,7 +4906,7 @@
       <c r="J151" s="5"/>
       <c r="K151" s="8"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:11">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="6"/>
@@ -4921,7 +4922,7 @@
       <c r="J152" s="5"/>
       <c r="K152" s="8"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:11">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="6"/>
@@ -4937,7 +4938,7 @@
       <c r="J153" s="5"/>
       <c r="K153" s="8"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:11">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="6"/>
@@ -4953,7 +4954,7 @@
       <c r="J154" s="5"/>
       <c r="K154" s="8"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:11">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="6"/>
@@ -4969,7 +4970,7 @@
       <c r="J155" s="5"/>
       <c r="K155" s="8"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:11">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="6"/>
@@ -4985,7 +4986,7 @@
       <c r="J156" s="5"/>
       <c r="K156" s="8"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:11">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="6"/>
@@ -5001,7 +5002,7 @@
       <c r="J157" s="5"/>
       <c r="K157" s="8"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:11">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="6"/>
@@ -5017,7 +5018,7 @@
       <c r="J158" s="5"/>
       <c r="K158" s="8"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:11">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
@@ -5033,7 +5034,7 @@
       <c r="J159" s="5"/>
       <c r="K159" s="8"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:11">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
@@ -5049,7 +5050,7 @@
       <c r="J160" s="5"/>
       <c r="K160" s="8"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:11">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="6"/>
@@ -5065,7 +5066,7 @@
       <c r="J161" s="5"/>
       <c r="K161" s="8"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:11">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
@@ -5081,7 +5082,7 @@
       <c r="J162" s="5"/>
       <c r="K162" s="8"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:11">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
@@ -5097,7 +5098,7 @@
       <c r="J163" s="5"/>
       <c r="K163" s="8"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:11">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
@@ -5113,7 +5114,7 @@
       <c r="J164" s="5"/>
       <c r="K164" s="8"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:11">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6"/>
@@ -5129,7 +5130,7 @@
       <c r="J165" s="5"/>
       <c r="K165" s="8"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:11">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6"/>
@@ -5145,7 +5146,7 @@
       <c r="J166" s="5"/>
       <c r="K166" s="8"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:11">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
@@ -5161,7 +5162,7 @@
       <c r="J167" s="5"/>
       <c r="K167" s="8"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:11">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
@@ -5177,7 +5178,7 @@
       <c r="J168" s="5"/>
       <c r="K168" s="8"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:11">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="6"/>
@@ -5193,7 +5194,7 @@
       <c r="J169" s="5"/>
       <c r="K169" s="8"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:11">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
@@ -5209,7 +5210,7 @@
       <c r="J170" s="5"/>
       <c r="K170" s="8"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:11">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
@@ -5225,7 +5226,7 @@
       <c r="J171" s="5"/>
       <c r="K171" s="8"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:11">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
@@ -5241,7 +5242,7 @@
       <c r="J172" s="5"/>
       <c r="K172" s="8"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:11">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
@@ -5257,7 +5258,7 @@
       <c r="J173" s="5"/>
       <c r="K173" s="8"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:11">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="6"/>
@@ -5273,7 +5274,7 @@
       <c r="J174" s="5"/>
       <c r="K174" s="8"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:11">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
@@ -5289,7 +5290,7 @@
       <c r="J175" s="5"/>
       <c r="K175" s="8"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:11">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
@@ -5305,7 +5306,7 @@
       <c r="J176" s="5"/>
       <c r="K176" s="8"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:11">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="6"/>
@@ -5321,7 +5322,7 @@
       <c r="J177" s="5"/>
       <c r="K177" s="8"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:11">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
@@ -5337,7 +5338,7 @@
       <c r="J178" s="5"/>
       <c r="K178" s="8"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:11">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
@@ -5353,7 +5354,7 @@
       <c r="J179" s="5"/>
       <c r="K179" s="8"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:11">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
@@ -5369,7 +5370,7 @@
       <c r="J180" s="5"/>
       <c r="K180" s="8"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:11">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
@@ -5385,7 +5386,7 @@
       <c r="J181" s="5"/>
       <c r="K181" s="8"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:11">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
@@ -5401,7 +5402,7 @@
       <c r="J182" s="5"/>
       <c r="K182" s="8"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:11">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="6"/>
@@ -5417,7 +5418,7 @@
       <c r="J183" s="5"/>
       <c r="K183" s="8"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:11">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="6"/>
@@ -5433,7 +5434,7 @@
       <c r="J184" s="5"/>
       <c r="K184" s="8"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:11">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
@@ -5449,7 +5450,7 @@
       <c r="J185" s="5"/>
       <c r="K185" s="8"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:11">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
@@ -5465,7 +5466,7 @@
       <c r="J186" s="5"/>
       <c r="K186" s="8"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:11">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
@@ -5481,7 +5482,7 @@
       <c r="J187" s="5"/>
       <c r="K187" s="8"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:11">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="6"/>
@@ -5497,7 +5498,7 @@
       <c r="J188" s="5"/>
       <c r="K188" s="8"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:11">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="6"/>
@@ -5513,7 +5514,7 @@
       <c r="J189" s="5"/>
       <c r="K189" s="8"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:11">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="6"/>
@@ -5529,7 +5530,7 @@
       <c r="J190" s="5"/>
       <c r="K190" s="8"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:11">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="6"/>
@@ -5545,7 +5546,7 @@
       <c r="J191" s="5"/>
       <c r="K191" s="8"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:11">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="6"/>
@@ -5561,7 +5562,7 @@
       <c r="J192" s="5"/>
       <c r="K192" s="8"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:11">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="6"/>
@@ -5577,7 +5578,7 @@
       <c r="J193" s="5"/>
       <c r="K193" s="8"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:11">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="6"/>
@@ -5593,7 +5594,7 @@
       <c r="J194" s="5"/>
       <c r="K194" s="8"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:11">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="6"/>
@@ -5609,7 +5610,7 @@
       <c r="J195" s="5"/>
       <c r="K195" s="8"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:11">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="6"/>
@@ -5625,7 +5626,7 @@
       <c r="J196" s="5"/>
       <c r="K196" s="8"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:11">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="6"/>
@@ -5641,7 +5642,7 @@
       <c r="J197" s="5"/>
       <c r="K197" s="8"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:11">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="6"/>
@@ -5657,7 +5658,7 @@
       <c r="J198" s="5"/>
       <c r="K198" s="8"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:11">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="6"/>
@@ -5673,7 +5674,7 @@
       <c r="J199" s="5"/>
       <c r="K199" s="8"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:11">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="6"/>
@@ -5689,7 +5690,7 @@
       <c r="J200" s="5"/>
       <c r="K200" s="8"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:11">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="6"/>
@@ -5705,7 +5706,7 @@
       <c r="J201" s="5"/>
       <c r="K201" s="8"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:11">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="6"/>
